--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="40" windowWidth="25520" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="18660" yWindow="40" windowWidth="19380" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>Compuesto</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Tuberias</t>
   </si>
   <si>
-    <t>* Tramo desde e tanque de productos de reaccion hasta la primera columna</t>
-  </si>
-  <si>
     <t>Lmezcla</t>
   </si>
   <si>
@@ -232,16 +229,80 @@
   </si>
   <si>
     <t>v=Q/S=(L/densidad)/(pi*D^2/4)=</t>
+  </si>
+  <si>
+    <t>* Tramo desde el tanque del eluyente a la primera columna</t>
+  </si>
+  <si>
+    <t>* Tramo desde el tanque de productos de reaccion hasta la primera columna</t>
+  </si>
+  <si>
+    <t>* Tramo desde la primera columna hasta el tanque de LBA</t>
+  </si>
+  <si>
+    <t>L de LBA</t>
+  </si>
+  <si>
+    <t>Kg/h</t>
+  </si>
+  <si>
+    <t>v opt =10,74  ·( (L^0,1)/(densidad^0,36))</t>
+  </si>
+  <si>
+    <t>Dopt = raiz ((4·L)/(pi·densidad·vopt))</t>
+  </si>
+  <si>
+    <t>Se seleccciona</t>
+  </si>
+  <si>
+    <t>* Tramo desde la primera columna hasta la segunda columna</t>
+  </si>
+  <si>
+    <t>L mezcla sin LBA</t>
+  </si>
+  <si>
+    <t>L eluyente</t>
+  </si>
+  <si>
+    <t>¿cuánto pongo?</t>
+  </si>
+  <si>
+    <t>falta añadir la cantidad de eluyente</t>
+  </si>
+  <si>
+    <t>Se selecciona</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>L de sorbitol</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>* Tramo desde la segunda columna al tanque de productos</t>
+  </si>
+  <si>
+    <t>* Tramo desde la segunda columna al tanque de sorbitol</t>
+  </si>
+  <si>
+    <t>L lactosa y fructosa</t>
+  </si>
+  <si>
+    <t>BOMBAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,8 +352,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +380,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -321,7 +396,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -353,12 +428,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -367,8 +453,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="41">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -384,6 +472,11 @@
     <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -399,6 +492,11 @@
     <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -728,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O82"/>
+  <dimension ref="A3:O156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -891,7 +989,7 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <f>C9/J20</f>
         <v>14.286633580951891</v>
       </c>
@@ -913,7 +1011,7 @@
       <c r="L19" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="5">
         <f>M18/J20</f>
         <v>12.851418132658301</v>
       </c>
@@ -928,7 +1026,7 @@
       <c r="H20" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="6">
         <f>C9/H22</f>
         <v>1104.9908930994063</v>
       </c>
@@ -937,7 +1035,7 @@
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <f>C8/G7</f>
         <v>11.821496544125013</v>
       </c>
@@ -948,13 +1046,13 @@
         <f>(C4/G5)+(C5/G6)+(C6/G3)+(C7/G4)+(C8/G7)</f>
         <v>14.286633580951893</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="5"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <f>C4/B22</f>
         <v>134.15391140034234</v>
       </c>
@@ -964,7 +1062,7 @@
       <c r="L24" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <f>C5/B22</f>
         <v>65.431647940074896</v>
       </c>
@@ -976,7 +1074,7 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <f>C9/B22</f>
         <v>1335.4146779195687</v>
       </c>
@@ -986,7 +1084,7 @@
       <c r="L26" t="s">
         <v>53</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <f>M18/B22</f>
         <v>1201.2607665192265</v>
       </c>
@@ -995,7 +1093,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
@@ -1004,31 +1102,31 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="4"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <f>(E18*C24*B28)/C26</f>
         <v>1.4352154482935913</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10">
+      <c r="M30" s="10"/>
+      <c r="N30" s="11">
         <f>(M19*N24*B28)/N26</f>
         <v>0.70000576912484558</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1044,14 +1142,14 @@
       <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <f>(E18/3600)/B36</f>
         <v>0.79370186560843836</v>
       </c>
       <c r="L34" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="5">
         <f>(M19/3600)/B36</f>
         <v>0.71396767403657224</v>
       </c>
@@ -1077,7 +1175,7 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <f>SQRT((4*B34)/3.1416)</f>
         <v>1.0052712265204471</v>
       </c>
@@ -1087,7 +1185,7 @@
       <c r="L38" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="5">
         <f>SQRT((4*M34)/3.1416)</f>
         <v>0.95344100525003539</v>
       </c>
@@ -1105,46 +1203,46 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <f>B38*(1+C40)</f>
         <v>1.1560619104985141</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="10">
+      <c r="M42" s="11">
         <f>M38*(1+C40)</f>
         <v>1.0964571560375407</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="N42" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <f>B34*(1+C40)</f>
         <v>0.9127571454497041</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M43" s="10">
+      <c r="M43" s="11">
         <f>M34*(1+C40)</f>
         <v>0.82106282514205797</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="N43" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1157,24 +1255,24 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="9">
         <f>B30/B43</f>
         <v>1.5723957412422978</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L48" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M48" s="10">
+      <c r="M48" s="11">
         <f>N30/M43</f>
         <v>0.85256054432099337</v>
       </c>
-      <c r="N48" s="9" t="s">
+      <c r="N48" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1192,20 +1290,26 @@
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="71" spans="1:11">
       <c r="B71" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73">
         <f>C9</f>
@@ -1214,19 +1318,19 @@
       <c r="C73" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="5">
         <f>B73/3600</f>
         <v>4.3851666666666667</v>
       </c>
       <c r="E73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="5">
+        <v>61</v>
+      </c>
+      <c r="B74" s="6">
         <f>J20</f>
         <v>1104.9908930994063</v>
       </c>
@@ -1235,72 +1339,444 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="8">
+      <c r="A76" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="9">
         <f>10.74*((D73^0.1)/(B74^0.36))</f>
         <v>0.9990650357224129</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="8">
+      <c r="A78" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="9">
         <f>SQRT((4*D73)/(3.1416*B74*B76))</f>
         <v>7.1116663665003299E-2</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="9">
         <f>B78/0.0254</f>
         <v>2.7998686482284763</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="G78" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H78" s="6">
+      <c r="H78" s="7">
         <v>3</v>
       </c>
-      <c r="I78" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J78" s="6">
+      <c r="I78" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J78" s="7">
         <f>H78*0.0254</f>
         <v>7.619999999999999E-2</v>
       </c>
-      <c r="K78" s="6" t="s">
+      <c r="K78" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="8">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="9">
         <f>(D73/B74)/(3.1416/4*(J78^2))</f>
         <v>0.87021500167910493</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="7" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100">
+        <f>C4</f>
+        <v>1585.9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="5">
+        <f>B100/3600</f>
+        <v>0.4405277777777778</v>
+      </c>
+      <c r="E100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="5">
+        <f>10.74*((D100^0.1)/(B74^0.36))</f>
+        <v>0.79394876893414701</v>
+      </c>
+      <c r="C103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" s="4">
+        <f>SQRT((4*D100)/(3.1416*B74*B103))</f>
+        <v>2.5285154491691973E-2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="5">
+        <f>B105/0.0254</f>
+        <v>0.99547852329495956</v>
+      </c>
+      <c r="E105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F105" t="s">
+        <v>77</v>
+      </c>
+      <c r="G105" t="s">
+        <v>67</v>
+      </c>
+      <c r="H105" s="5">
+        <f>D105</f>
+        <v>0.99547852329495956</v>
+      </c>
+      <c r="I105" t="s">
+        <v>65</v>
+      </c>
+      <c r="J105" s="4">
+        <f>H105*0.0254</f>
+        <v>2.5285154491691973E-2</v>
+      </c>
+      <c r="K105" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115">
+        <f>SUM(C5:C8)</f>
+        <v>14200.7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" s="5">
+        <f>B115/3600</f>
+        <v>3.944638888888889</v>
+      </c>
+      <c r="E115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="B116" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="5">
+        <f>10.74*((D115^0.1)/(B74^0.36))</f>
+        <v>0.98854370528560975</v>
+      </c>
+      <c r="C118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" s="5">
+        <f>SQRT((4*D115)/(3.1416*B74*B118))</f>
+        <v>6.7807993068728853E-2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="5">
+        <f>B120/0.0254</f>
+        <v>2.6696060263279078</v>
+      </c>
+      <c r="E120" t="s">
+        <v>65</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G120" t="s">
+        <v>45</v>
+      </c>
+      <c r="H120">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="I120" t="s">
+        <v>65</v>
+      </c>
+      <c r="J120">
+        <f>H120*0.0254</f>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="K120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" s="5">
+        <f>(D115/B74)/((3.1416*J120^2)/4)</f>
+        <v>0.78279440629042774</v>
+      </c>
+      <c r="C124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="B127" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>85</v>
+      </c>
+      <c r="B129">
+        <f>C5</f>
+        <v>773.5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" s="5">
+        <f>B129/3600</f>
+        <v>0.21486111111111111</v>
+      </c>
+      <c r="E129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" s="5">
+        <f>10.74*((D129^0.1)/(B74^0.36))</f>
+        <v>0.73894298658698043</v>
+      </c>
+      <c r="C132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>63</v>
+      </c>
+      <c r="B135" s="5">
+        <f>SQRT((4*D129)/(3.1416*B74*B132))</f>
+        <v>1.8304111178985068E-2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" s="5">
+        <f>B135/0.0254</f>
+        <v>0.72063429838523896</v>
+      </c>
+      <c r="E135" t="s">
+        <v>65</v>
+      </c>
+      <c r="F135" t="s">
+        <v>83</v>
+      </c>
+      <c r="G135" t="s">
+        <v>45</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>65</v>
+      </c>
+      <c r="J135">
+        <f>H135*0.0254</f>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="K135" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" s="5">
+        <f>(D129/B74)/((3.1416*J135^2)/4)</f>
+        <v>0.38374328444307754</v>
+      </c>
+      <c r="C139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="B142" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144">
+        <f>SUM(C6:C8)</f>
+        <v>13427.199999999999</v>
+      </c>
+      <c r="C144" t="s">
+        <v>50</v>
+      </c>
+      <c r="D144" s="5">
+        <f>B144/3600</f>
+        <v>3.7297777777777776</v>
+      </c>
+      <c r="E144" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146" s="5">
+        <f>10.74*((D144^0.1)/(B74^0.36))</f>
+        <v>0.98302247099498974</v>
+      </c>
+      <c r="C146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>63</v>
+      </c>
+      <c r="B148" s="5">
+        <f>SQRT((4*D144)/(3.1416*B146*B74))</f>
+        <v>6.6120321703792631E-2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148">
+        <f>B148/0.0254</f>
+        <v>2.6031622718028595</v>
+      </c>
+      <c r="E148" t="s">
+        <v>65</v>
+      </c>
+      <c r="F148" t="s">
+        <v>83</v>
+      </c>
+      <c r="G148" t="s">
+        <v>45</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148" t="s">
+        <v>65</v>
+      </c>
+      <c r="J148">
+        <f>H148*0.0254</f>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="K148" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152" s="5">
+        <f>(D144/B74)/((3.1416*J148^2)/4)</f>
+        <v>0.74015626357453013</v>
+      </c>
+      <c r="C152" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
